--- a/Results/Experimento3[04_17_2023-18_36].xlsx
+++ b/Results/Experimento3[04_17_2023-18_36].xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denis\Desktop\Seminario\Codes\Datasets\MNIST_ORG\NN_Tests_DG\Results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1D69FA-0F58-4CBC-81F9-836A3FDBA2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -67,9 +73,6 @@
     <t>[1.6924390077590943, 1.3552677631378174, 1.2000044226646422, 1.0897435665130615, 1.2171403527259828, 0.7460996985435486, 0.7604259192943573, 0.6916028738021851, 0.6255768179893494, 0.7268462896347045, 0.7293904781341553, 0.6754472732543946, 0.7751351773738862, 0.6184148132801056, 0.4811598062515259, 0.4797214359045029, 0.48300938308238983, 0.7466018736362457, 0.5646242082118988, 0.8909170746803283, 0.6828306674957275, 0.529878494143486, 0.4918696522712708, 0.45460529923439025, 0.4759190261363983, 0.5246098101139068, 0.6741507351398468, 0.6301737666130066, 0.6012601107358932, 0.5568321019411087, 0.5744212567806244, 0.49480125606060027, 0.47005314826965333, 0.6584262847900391, 0.5790823489427567, 0.6155291795730591, 0.5989737331867218, 0.6619165599346161, 0.602714079618454, 0.5318365871906281, 0.46737048029899597, 0.6046812653541564, 0.6904700517654419, 0.6231812477111817, 0.563209393620491, 0.5161151021718979, 0.4745526611804962, 0.47624475359916685, 0.48066971600055697, 0.5948200404644013]</t>
   </si>
   <si>
-    <t>Random Ciclico Extended</t>
-  </si>
-  <si>
     <t>[0.08740241240615917, 0.09576127616011768, 0.09768710676059617, 0.10083437643179922, 0.034612476212242047, 0.03412842917089359, 0.03332831924005179, 0.012823978616788578, 0.06053235142738104, 0.0697965764497216, 0.08592979281583539, 0.09033489872266592, 0.04450766321649518, 0.012001812308356164, 0.010542143044802842, 0.010439864787394107, 0.09514542238801871, 0.097042284682324, 0.09847874043513033, 0.09876609866849258, 0.0606712016076228, 0.046879819218468156, 0.03001582964000682, 0.022185795985956075, 0.03885402741307839, 0.08831153905934581, 0.09773969640028103, 0.09954143081876587, 0.07687173116661582, 0.06353561897853256, 0.027056422837113854, 0.01020875484130882, 0.07851396844568795, 0.09649903352181943, 0.09853065181543469, 0.10052242247341471, 0.09861991223016718, 0.07996607760170227, 0.06744869053937406, 0.021786676643882914, 0.05583075590899372, 0.09760418554377367, 0.09851209870743842, 0.09926591245441915, 0.039115842469357634, 0.010740752556067412, 0.010374347385045906, 0.00915318324007244, 0.08520870461582289, 0.0928389829334718]</t>
   </si>
   <si>
@@ -85,20 +88,22 @@
     <t>[2.103377652168274, 1.7802361726760865, 1.5420513987541198, 1.5402498841285706, 1.3263772010803223, 1.2939075112342835, 1.2152658939361571, 1.0208661258220673, 0.9235089480876922, 0.8755756795406342, 0.8638283669948578, 0.912470406293869, 0.8507604777812958, 0.8470277309417724, 0.8325359165668488, 0.8322994530200958, 0.8056765854358673, 0.8067410051822662, 0.78188436627388, 0.8779150068759918, 0.785168468952179, 0.8192527294158936, 0.7691467463970184, 0.9259040594100952, 0.7659794211387634, 0.9500949442386627, 0.7584132015705108, 0.8055456638336181, 0.7414321959018707, 0.7590777814388275, 0.7182190239429473, 0.7979235351085663, 0.7591269612312317, 0.8502336144447327, 0.7314891576766968, 0.7680987596511841, 0.7275571882724762, 0.7439891576766968, 0.7188377439975738, 0.7676312386989593, 0.7219360053539277, 0.9789371073246003, 0.6989677786827088, 0.7549207925796508, 0.7117578744888305, 0.8877559065818786, 0.7221441626548767, 0.7942075610160828, 0.7031038105487823, 0.8276737332344055]</t>
   </si>
   <si>
-    <t>Nuestro decreciente con Momentum</t>
-  </si>
-  <si>
     <t>[0.09000000000000001, 0.08000000000000002, 0.07000000000000002, 0.06000000000000002, 0.05000000000000002, 0.040000000000000015, 0.030000000000000013, 0.02000000000000001, 0.01000000000000001, 1.0408340855860843e-17, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0]</t>
   </si>
   <si>
     <t>73.6%</t>
+  </si>
+  <si>
+    <t>TA Ciclica Aleatoria Ext</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TA Decreciente (propuesta)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -162,44 +167,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -210,10 +212,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -251,71 +253,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -343,7 +345,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -366,11 +368,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -379,13 +381,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -395,7 +397,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -404,7 +406,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -413,7 +415,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -421,10 +423,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -489,27 +491,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="42.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="34.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,82 +537,82 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>2738958.75</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>0</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>2689772</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>0</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="4" t="s">
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4">
+        <v>2610016.25</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="5">
-        <v>2610016.25</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" t="s">
         <v>23</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Experimento3[04_17_2023-18_36].xlsx
+++ b/Results/Experimento3[04_17_2023-18_36].xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denis\Desktop\Seminario\Codes\Datasets\MNIST_ORG\NN_Tests_DG\Results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1D69FA-0F58-4CBC-81F9-836A3FDBA2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -73,6 +67,9 @@
     <t>[1.6924390077590943, 1.3552677631378174, 1.2000044226646422, 1.0897435665130615, 1.2171403527259828, 0.7460996985435486, 0.7604259192943573, 0.6916028738021851, 0.6255768179893494, 0.7268462896347045, 0.7293904781341553, 0.6754472732543946, 0.7751351773738862, 0.6184148132801056, 0.4811598062515259, 0.4797214359045029, 0.48300938308238983, 0.7466018736362457, 0.5646242082118988, 0.8909170746803283, 0.6828306674957275, 0.529878494143486, 0.4918696522712708, 0.45460529923439025, 0.4759190261363983, 0.5246098101139068, 0.6741507351398468, 0.6301737666130066, 0.6012601107358932, 0.5568321019411087, 0.5744212567806244, 0.49480125606060027, 0.47005314826965333, 0.6584262847900391, 0.5790823489427567, 0.6155291795730591, 0.5989737331867218, 0.6619165599346161, 0.602714079618454, 0.5318365871906281, 0.46737048029899597, 0.6046812653541564, 0.6904700517654419, 0.6231812477111817, 0.563209393620491, 0.5161151021718979, 0.4745526611804962, 0.47624475359916685, 0.48066971600055697, 0.5948200404644013]</t>
   </si>
   <si>
+    <t>TA Ciclica Aleatoria Ext</t>
+  </si>
+  <si>
     <t>[0.08740241240615917, 0.09576127616011768, 0.09768710676059617, 0.10083437643179922, 0.034612476212242047, 0.03412842917089359, 0.03332831924005179, 0.012823978616788578, 0.06053235142738104, 0.0697965764497216, 0.08592979281583539, 0.09033489872266592, 0.04450766321649518, 0.012001812308356164, 0.010542143044802842, 0.010439864787394107, 0.09514542238801871, 0.097042284682324, 0.09847874043513033, 0.09876609866849258, 0.0606712016076228, 0.046879819218468156, 0.03001582964000682, 0.022185795985956075, 0.03885402741307839, 0.08831153905934581, 0.09773969640028103, 0.09954143081876587, 0.07687173116661582, 0.06353561897853256, 0.027056422837113854, 0.01020875484130882, 0.07851396844568795, 0.09649903352181943, 0.09853065181543469, 0.10052242247341471, 0.09861991223016718, 0.07996607760170227, 0.06744869053937406, 0.021786676643882914, 0.05583075590899372, 0.09760418554377367, 0.09851209870743842, 0.09926591245441915, 0.039115842469357634, 0.010740752556067412, 0.010374347385045906, 0.00915318324007244, 0.08520870461582289, 0.0928389829334718]</t>
   </si>
   <si>
@@ -88,23 +85,21 @@
     <t>[2.103377652168274, 1.7802361726760865, 1.5420513987541198, 1.5402498841285706, 1.3263772010803223, 1.2939075112342835, 1.2152658939361571, 1.0208661258220673, 0.9235089480876922, 0.8755756795406342, 0.8638283669948578, 0.912470406293869, 0.8507604777812958, 0.8470277309417724, 0.8325359165668488, 0.8322994530200958, 0.8056765854358673, 0.8067410051822662, 0.78188436627388, 0.8779150068759918, 0.785168468952179, 0.8192527294158936, 0.7691467463970184, 0.9259040594100952, 0.7659794211387634, 0.9500949442386627, 0.7584132015705108, 0.8055456638336181, 0.7414321959018707, 0.7590777814388275, 0.7182190239429473, 0.7979235351085663, 0.7591269612312317, 0.8502336144447327, 0.7314891576766968, 0.7680987596511841, 0.7275571882724762, 0.7439891576766968, 0.7188377439975738, 0.7676312386989593, 0.7219360053539277, 0.9789371073246003, 0.6989677786827088, 0.7549207925796508, 0.7117578744888305, 0.8877559065818786, 0.7221441626548767, 0.7942075610160828, 0.7031038105487823, 0.8276737332344055]</t>
   </si>
   <si>
+    <t xml:space="preserve"> TA Decreciente (propuesta)</t>
+  </si>
+  <si>
     <t>[0.09000000000000001, 0.08000000000000002, 0.07000000000000002, 0.06000000000000002, 0.05000000000000002, 0.040000000000000015, 0.030000000000000013, 0.02000000000000001, 0.01000000000000001, 1.0408340855860843e-17, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0]</t>
   </si>
   <si>
     <t>73.6%</t>
-  </si>
-  <si>
-    <t>TA Ciclica Aleatoria Ext</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TA Decreciente (propuesta)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,13 +109,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -167,41 +156,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="10">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -212,10 +204,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -253,71 +245,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -345,7 +337,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -368,11 +360,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -381,13 +373,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -397,7 +389,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -406,7 +398,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -415,7 +407,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -423,10 +415,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -491,27 +483,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="7" width="113.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="34.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,82 +529,82 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>2738958.75</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>2689772</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2610016.25</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="4">
-        <v>2610016.25</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="H4" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
